--- a/20230215_VXI-11 通信の概要/302_RPC_7_2_Authentication.xlsx
+++ b/20230215_VXI-11 通信の概要/302_RPC_7_2_Authentication.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326EF39B-09C5-4B6E-94DE-9875937219C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0D84E3-90B2-49C1-85B7-00495E22475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
@@ -553,9 +553,7 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="91" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/20230215_VXI-11 通信の概要/302_RPC_7_2_Authentication.xlsx
+++ b/20230215_VXI-11 通信の概要/302_RPC_7_2_Authentication.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0D84E3-90B2-49C1-85B7-00495E22475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5361AF18-47E2-4828-8FEE-95A6C399978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
@@ -50,13 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>番号</t>
-    <rPh sb="0" eb="2">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>定数名</t>
     <rPh sb="0" eb="3">
       <t>テイスウメイ</t>
@@ -147,6 +140,13 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -553,7 +553,9 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="91" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -566,15 +568,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -588,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -602,13 +604,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -616,10 +618,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -628,26 +630,26 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>1</v>
@@ -658,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="4"/>
@@ -668,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="4"/>
